--- a/Section02/activities/Excel_Practice_Student.xlsx
+++ b/Section02/activities/Excel_Practice_Student.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9525C6-E84E-4CF7-B9D0-6CC8A1CBB988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" activeTab="2" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
@@ -151,15 +151,9 @@
     <t>Interest Rate</t>
   </si>
   <si>
-    <t>Months</t>
-  </si>
-  <si>
     <t>Interest Paid</t>
   </si>
   <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
     <t>Monthly Payment</t>
   </si>
   <si>
@@ -620,6 +614,12 @@
   </si>
   <si>
     <t>XOR</t>
+  </si>
+  <si>
+    <t>Total Loan Cost</t>
+  </si>
+  <si>
+    <t>12 Months</t>
   </si>
 </sst>
 </file>
@@ -873,13 +873,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1215,19 +1215,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1421,43 +1421,35 @@
   <cols>
     <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1466,7 +1458,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1475,12 +1467,21 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB70C1B-75BF-4BA5-9170-95D94596A40F}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1514,61 +1515,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="F1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6">
         <v>45</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="6">
         <v>45</v>
@@ -1577,20 +1578,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="6">
         <v>60</v>
@@ -1599,20 +1600,20 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="6">
         <v>80</v>
@@ -1621,20 +1622,20 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6">
         <v>65</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" s="6">
         <v>65</v>
@@ -1643,20 +1644,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6">
         <v>80</v>
       </c>
       <c r="D7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="6">
         <v>80</v>
@@ -1665,20 +1666,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="6">
         <v>100</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="6">
         <v>100</v>
@@ -1687,20 +1688,20 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6">
         <v>43</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="6">
         <v>43</v>
@@ -1709,20 +1710,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6">
         <v>58</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="6">
         <v>58</v>
@@ -1731,20 +1732,20 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6">
         <v>78</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="6">
         <v>78</v>
@@ -1753,36 +1754,36 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <v>45</v>
@@ -1791,72 +1792,72 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="7">
         <v>60</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="7">
         <v>80</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7">
         <v>65</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7">
         <v>80</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7">
         <v>100</v>
@@ -1865,10 +1866,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="7">
         <v>43</v>
@@ -1877,10 +1878,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22" s="7">
         <v>58</v>
@@ -1889,10 +1890,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
         <v>78</v>
@@ -1900,38 +1901,38 @@
       <c r="D23" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
+      <c r="A25" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="6">
         <v>49</v>
@@ -1940,22 +1941,22 @@
         <v>1</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" s="6">
         <v>63</v>
@@ -1964,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G28" s="15">
         <v>1</v>
@@ -1973,10 +1974,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="6">
         <v>83</v>
@@ -1985,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G29" s="15">
         <v>1</v>
@@ -1994,10 +1995,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="6">
         <v>43</v>
@@ -2006,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G30" s="15">
         <v>2</v>
@@ -2015,10 +2016,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6">
         <v>58</v>
@@ -2027,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G31" s="18">
         <v>2</v>
@@ -2037,10 +2038,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6">
         <v>78</v>
@@ -2051,10 +2052,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6">
         <v>65</v>
@@ -2065,10 +2066,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C34" s="6">
         <v>80</v>
@@ -2079,10 +2080,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="6">
         <v>100</v>
@@ -2093,10 +2094,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6">
         <v>43</v>
@@ -2107,10 +2108,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="6">
         <v>58</v>
@@ -2121,10 +2122,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="6">
         <v>78</v>
@@ -2135,65 +2136,65 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="F40" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="A40" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="F40" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6">
         <v>305</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6">
@@ -2202,25 +2203,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="6">
         <v>510</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I43" s="6">
         <v>510</v>
@@ -2228,25 +2229,25 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="6">
         <v>490</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I44" s="6">
         <v>490</v>
@@ -2254,25 +2255,25 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="6">
         <v>335</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I45" s="6">
         <v>335</v>
@@ -2280,25 +2281,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D46" s="6">
         <v>465</v>
       </c>
       <c r="F46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="I46" s="6">
         <v>465</v>
@@ -2306,25 +2307,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47" s="6">
         <v>475</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I47" s="6">
         <v>475</v>
@@ -2332,25 +2333,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" s="6">
         <v>525</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I48" s="6">
         <v>525</v>
@@ -2358,25 +2359,25 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D49" s="6">
         <v>385</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="I49" s="6">
         <v>385</v>
@@ -2384,20 +2385,20 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6">
         <v>420</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6">
@@ -2406,25 +2407,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D51" s="6">
         <v>349</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="I51" s="6">
         <v>349</v>
@@ -2432,20 +2433,20 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6">
         <v>253</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6">
@@ -2454,25 +2455,25 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" s="6">
         <v>395</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I53" s="6">
         <v>395</v>
@@ -2480,25 +2481,25 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D54" s="6">
         <v>310</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I54" s="6">
         <v>310</v>
@@ -2506,20 +2507,20 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
         <v>475</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6">
@@ -2528,25 +2529,25 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D56" s="6">
         <v>505</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I56" s="6">
         <v>505</v>
@@ -2554,20 +2555,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6">
         <v>455</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6">
@@ -2576,20 +2577,20 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6">
         <v>405</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6">
@@ -2598,20 +2599,20 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6">
         <v>438</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6">
@@ -2620,25 +2621,25 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="6">
         <v>310</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I60" s="6">
         <v>310</v>
@@ -2646,20 +2647,20 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6">
         <v>200</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6">
@@ -2667,61 +2668,61 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="F64" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="A64" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="F64" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6">
         <v>305</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6">
@@ -2730,25 +2731,25 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="6">
         <v>510</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I67" s="6">
         <v>510</v>
@@ -2756,25 +2757,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="6">
         <v>490</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I68" s="6">
         <v>490</v>
@@ -2782,343 +2783,343 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" s="6">
         <v>335</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I69" s="6">
         <v>335</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="D70" s="6">
         <v>465</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="I70" s="6">
         <v>465</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D71" s="6">
         <v>475</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I71" s="6">
         <v>475</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D72" s="6">
         <v>525</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I72" s="6">
         <v>525</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D73" s="6">
         <v>385</v>
       </c>
       <c r="F73" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="I73" s="6">
         <v>385</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6">
         <v>420</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6">
         <v>420</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="D75" s="6">
         <v>349</v>
       </c>
       <c r="F75" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="I75" s="6">
         <v>349</v>
       </c>
       <c r="K75" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6">
         <v>253</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6">
         <v>253</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D77" s="6">
         <v>395</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I77" s="6">
         <v>395</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L77" s="6"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D78" s="6">
         <v>310</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I78" s="6">
         <v>310</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6">
         <v>475</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6">
         <v>475</v>
       </c>
       <c r="K79" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L79" s="6"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D80" s="6">
         <v>505</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I80" s="6">
         <v>505</v>
@@ -3126,20 +3127,20 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6">
         <v>455</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6">
@@ -3148,20 +3149,20 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6">
         <v>405</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6">
@@ -3170,20 +3171,20 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6">
         <v>438</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6">
@@ -3192,25 +3193,25 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="6">
         <v>310</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I84" s="6">
         <v>310</v>
@@ -3218,20 +3219,20 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6">
         <v>200</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6">
@@ -3240,41 +3241,41 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F86" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
+      <c r="A88" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C90" s="6">
         <v>49</v>
@@ -3285,10 +3286,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C91" s="6">
         <v>63</v>
@@ -3297,21 +3298,21 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C92" s="6">
         <v>83</v>
@@ -3320,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G92" s="15">
         <v>1</v>
@@ -3329,10 +3330,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C93" s="6">
         <v>43</v>
@@ -3341,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G93" s="18">
         <v>2</v>
@@ -3350,10 +3351,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C94" s="6">
         <v>58</v>
@@ -3362,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G94" s="15">
         <v>1</v>
@@ -3371,10 +3372,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C95" s="6">
         <v>78</v>
@@ -3383,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G95" s="18">
         <v>2</v>
@@ -3392,10 +3393,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C96" s="6">
         <v>65</v>
@@ -3406,10 +3407,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C97" s="6">
         <v>80</v>
@@ -3420,10 +3421,10 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C98" s="6">
         <v>100</v>
@@ -3434,10 +3435,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="6">
         <v>43</v>
@@ -3448,10 +3449,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C100" s="6">
         <v>58</v>
@@ -3462,10 +3463,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C101" s="6">
         <v>78</v>
@@ -3475,60 +3476,60 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="F103" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="F103" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="F104" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C105" s="5">
         <v>318</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H105" s="5">
         <v>318</v>
@@ -3536,19 +3537,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C106" s="5">
         <v>405</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H106" s="5">
         <v>405</v>
@@ -3556,19 +3557,19 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" s="5">
         <v>525</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H107" s="5">
         <v>525</v>
@@ -3576,19 +3577,19 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C108" s="5">
         <v>309</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H108" s="5">
         <v>309</v>
@@ -3596,19 +3597,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C109" s="5">
         <v>405</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H109" s="5">
         <v>405</v>
@@ -3616,19 +3617,19 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C110" s="5">
         <v>534</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H110" s="5">
         <v>534</v>
@@ -3636,19 +3637,19 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C111" s="5">
         <v>314</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H111" s="5">
         <v>314</v>
@@ -3656,19 +3657,19 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C112" s="5">
         <v>405</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H112" s="5">
         <v>405</v>
@@ -3676,19 +3677,19 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C113" s="5">
         <v>530</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H113" s="5">
         <v>530</v>
@@ -3696,52 +3697,52 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="F115" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="23"/>
+      <c r="A115" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="F115" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="24"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C117" s="5">
         <v>45</v>
@@ -3767,24 +3768,24 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C118" s="5">
         <v>60</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C119" s="5">
         <v>80</v>
@@ -3813,10 +3814,10 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C120" s="5">
         <v>65</v>
@@ -3824,10 +3825,10 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C121" s="5">
         <v>80</v>
@@ -3835,10 +3836,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C122" s="5">
         <v>100</v>
@@ -3846,10 +3847,10 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C123" s="5">
         <v>43</v>
@@ -3857,10 +3858,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C124" s="5">
         <v>58</v>
@@ -3868,10 +3869,10 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C125" s="5">
         <v>78</v>
@@ -3879,38 +3880,38 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
+      <c r="A127" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="E128" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B129" s="5">
         <v>10</v>
@@ -3927,7 +3928,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B130" s="5">
         <v>12</v>
@@ -3944,7 +3945,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B131" s="5">
         <v>15</v>
@@ -3961,7 +3962,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B132" s="5">
         <v>4</v>
@@ -3978,7 +3979,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B133" s="5">
         <v>10</v>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B134" s="5">
         <v>9</v>
@@ -4012,69 +4013,69 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="F138" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="G138" s="23"/>
-      <c r="H138" s="23"/>
-      <c r="I138" s="23"/>
+      <c r="A138" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="24"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
+      <c r="F138" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
+      <c r="I138" s="24"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C140" s="5">
         <v>49</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H140" s="5">
         <v>49</v>
@@ -4082,19 +4083,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C141" s="5">
         <v>63</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H141" s="5">
         <v>63</v>
@@ -4102,19 +4103,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C142" s="5">
         <v>83</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H142" s="5">
         <v>83</v>
@@ -4122,19 +4123,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C143" s="5">
         <v>43</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H143" s="5">
         <v>43</v>
@@ -4142,19 +4143,19 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C144" s="5">
         <v>58</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H144" s="5">
         <v>58</v>
@@ -4162,19 +4163,19 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C145" s="5">
         <v>78</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H145" s="5">
         <v>78</v>
@@ -4182,19 +4183,19 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C146" s="5">
         <v>65</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H146" s="5">
         <v>65</v>
@@ -4202,19 +4203,19 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C147" s="5">
         <v>80</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H147" s="5">
         <v>80</v>
@@ -4222,19 +4223,19 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C148" s="5">
         <v>100</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H148" s="5">
         <v>100</v>
@@ -4242,66 +4243,66 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="H150" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="23"/>
-      <c r="N150" s="23"/>
+      <c r="A150" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="24"/>
+      <c r="H150" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="24"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K151" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D152" s="5">
         <v>318</v>
@@ -4310,13 +4311,13 @@
         <v>1</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K152" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L152" s="5">
         <v>318</v>
@@ -4324,13 +4325,13 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D153" s="5">
         <v>405</v>
@@ -4339,13 +4340,13 @@
         <v>2</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L153" s="5">
         <v>405</v>
@@ -4353,13 +4354,13 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D154" s="5">
         <v>525</v>
@@ -4368,13 +4369,13 @@
         <v>3</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K154" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L154" s="5">
         <v>525</v>
@@ -4382,10 +4383,10 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D155" s="5">
         <v>309</v>
@@ -4394,10 +4395,10 @@
         <v>4</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L155" s="5">
         <v>309</v>
@@ -4405,10 +4406,10 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D156" s="5">
         <v>405</v>
@@ -4417,10 +4418,10 @@
         <v>5</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L156" s="5">
         <v>405</v>
@@ -4428,13 +4429,13 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D157" s="5">
         <v>534</v>
@@ -4443,13 +4444,13 @@
         <v>6</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K157" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L157" s="5">
         <v>534</v>
@@ -4457,10 +4458,10 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D158" s="5">
         <v>314</v>
@@ -4469,10 +4470,10 @@
         <v>7</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L158" s="5">
         <v>314</v>
@@ -4480,10 +4481,10 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D159" s="5">
         <v>405</v>
@@ -4492,10 +4493,10 @@
         <v>8</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L159" s="5">
         <v>405</v>
@@ -4503,10 +4504,10 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D160" s="5">
         <v>530</v>
@@ -4515,10 +4516,10 @@
         <v>9</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L160" s="5">
         <v>530</v>
@@ -4526,10 +4527,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D161" s="5">
         <v>195</v>
@@ -4538,10 +4539,10 @@
         <v>10</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L161" s="5">
         <v>195</v>
@@ -4549,10 +4550,10 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D162" s="5">
         <v>205</v>
@@ -4561,10 +4562,10 @@
         <v>11</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L162" s="5">
         <v>205</v>
@@ -4572,13 +4573,13 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D163" s="5">
         <v>395</v>
@@ -4587,13 +4588,13 @@
         <v>12</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K163" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L163" s="5">
         <v>395</v>
@@ -4601,13 +4602,13 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D164" s="5">
         <v>195</v>
@@ -4616,13 +4617,13 @@
         <v>13</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L164" s="5">
         <v>195</v>
@@ -4630,13 +4631,13 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D165" s="5">
         <v>205</v>
@@ -4645,13 +4646,13 @@
         <v>14</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L165" s="5">
         <v>205</v>
@@ -4659,13 +4660,13 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D166" s="5">
         <v>395</v>
@@ -4674,13 +4675,13 @@
         <v>15</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K166" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L166" s="5">
         <v>395</v>
@@ -4688,13 +4689,13 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D167" s="5">
         <v>251</v>
@@ -4703,13 +4704,13 @@
         <v>16</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L167" s="5">
         <v>251</v>
@@ -4717,13 +4718,13 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D168" s="5">
         <v>349</v>
@@ -4732,13 +4733,13 @@
         <v>17</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L168" s="5">
         <v>349</v>
@@ -4746,13 +4747,13 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D169" s="5">
         <v>479</v>
@@ -4761,13 +4762,13 @@
         <v>18</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K169" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L169" s="5">
         <v>479</v>
@@ -4775,10 +4776,10 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D170" s="5">
         <v>253</v>
@@ -4787,10 +4788,10 @@
         <v>19</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L170" s="5">
         <v>253</v>
@@ -4798,10 +4799,10 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D171" s="5">
         <v>413</v>
@@ -4810,10 +4811,10 @@
         <v>20</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L171" s="5">
         <v>413</v>
@@ -4821,124 +4822,124 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D172" s="5">
         <v>262</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D173" s="5">
         <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B175" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C175" s="23"/>
-      <c r="D175" s="23"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="23"/>
+      <c r="B175" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B176" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D177" s="5">
         <v>318</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D178" s="5">
         <v>405</v>
       </c>
       <c r="F178" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G178" s="16"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D179" s="5">
         <v>525</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G179" s="16"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D180" s="5">
         <v>309</v>
       </c>
       <c r="F180" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G180" s="20"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D181" s="5">
         <v>405</v>
@@ -4946,10 +4947,10 @@
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D182" s="5">
         <v>534</v>
@@ -4957,10 +4958,10 @@
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D183" s="5">
         <v>314</v>
@@ -4968,10 +4969,10 @@
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D184" s="5">
         <v>405</v>
@@ -4979,10 +4980,10 @@
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D185" s="5">
         <v>530</v>
@@ -4990,50 +4991,50 @@
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B187" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C187" s="23"/>
-      <c r="D187" s="23"/>
-      <c r="E187" s="23"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="23"/>
-      <c r="H187" s="23"/>
-      <c r="I187" s="23"/>
+      <c r="B187" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="24"/>
+      <c r="F187" s="24"/>
+      <c r="G187" s="24"/>
+      <c r="H187" s="24"/>
+      <c r="I187" s="24"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E188" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H188" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G188" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H188" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="I188" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D189" s="5">
         <v>318</v>
@@ -5042,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H189" s="15">
         <v>1</v>
@@ -5051,10 +5052,10 @@
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D190" s="5">
         <v>405</v>
@@ -5063,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="G190" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H190" s="15">
         <v>2</v>
@@ -5072,10 +5073,10 @@
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D191" s="5">
         <v>525</v>
@@ -5084,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H191" s="15">
         <v>3</v>
@@ -5093,10 +5094,10 @@
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D192" s="5">
         <v>309</v>
@@ -5105,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H192" s="15">
         <v>1</v>
@@ -5114,10 +5115,10 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B193" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D193" s="5">
         <v>405</v>
@@ -5126,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H193" s="15">
         <v>2</v>
@@ -5135,10 +5136,10 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B194" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D194" s="5">
         <v>534</v>
@@ -5147,7 +5148,7 @@
         <v>2</v>
       </c>
       <c r="G194" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H194" s="15">
         <v>3</v>
@@ -5156,10 +5157,10 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B195" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D195" s="5">
         <v>314</v>
@@ -5168,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="G195" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H195" s="15">
         <v>1</v>
@@ -5177,10 +5178,10 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B196" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D196" s="5">
         <v>405</v>
@@ -5189,7 +5190,7 @@
         <v>2</v>
       </c>
       <c r="G196" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H196" s="15">
         <v>2</v>
@@ -5198,10 +5199,10 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B197" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D197" s="5">
         <v>530</v>
@@ -5210,7 +5211,7 @@
         <v>3</v>
       </c>
       <c r="G197" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H197" s="15">
         <v>3</v>
@@ -5219,10 +5220,10 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B198" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D198" s="5">
         <v>195</v>
@@ -5231,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="G198" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H198" s="15">
         <v>1</v>
@@ -5240,10 +5241,10 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B199" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D199" s="5">
         <v>205</v>
@@ -5252,7 +5253,7 @@
         <v>2</v>
       </c>
       <c r="G199" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H199" s="15">
         <v>2</v>
@@ -5261,10 +5262,10 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B200" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D200" s="5">
         <v>395</v>
@@ -5273,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="G200" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H200" s="18">
         <v>3</v>
@@ -5282,10 +5283,10 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B201" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D201" s="5">
         <v>195</v>
@@ -5295,31 +5296,31 @@
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B203" s="23"/>
-      <c r="C203" s="23"/>
-      <c r="D203" s="23"/>
-      <c r="E203" s="23"/>
-      <c r="F203" s="23"/>
-      <c r="G203" s="23"/>
+      <c r="A203" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -5327,13 +5328,13 @@
         <v>1</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E205" s="5">
         <v>318</v>
@@ -5344,13 +5345,13 @@
         <v>2</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E206" s="5">
         <v>405</v>
@@ -5361,19 +5362,19 @@
         <v>3</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E207" s="5">
         <v>525</v>
       </c>
       <c r="F207" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -5381,16 +5382,16 @@
         <v>4</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E208" s="5">
         <v>309</v>
       </c>
       <c r="F208" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G208" s="22"/>
     </row>
@@ -5399,10 +5400,10 @@
         <v>5</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E209" s="5">
         <v>405</v>
@@ -5413,13 +5414,13 @@
         <v>6</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E210" s="5">
         <v>534</v>
@@ -5430,10 +5431,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E211" s="5">
         <v>314</v>
@@ -5444,10 +5445,10 @@
         <v>8</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E212" s="5">
         <v>405</v>
@@ -5458,10 +5459,10 @@
         <v>9</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E213" s="5">
         <v>530</v>
@@ -5472,10 +5473,10 @@
         <v>10</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E214" s="5">
         <v>195</v>
@@ -5486,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E215" s="5">
         <v>205</v>
@@ -5500,13 +5501,13 @@
         <v>12</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E216" s="5">
         <v>395</v>
@@ -5517,13 +5518,13 @@
         <v>13</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E217" s="5">
         <v>195</v>
@@ -5534,13 +5535,13 @@
         <v>14</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E218" s="5">
         <v>205</v>
@@ -5551,13 +5552,13 @@
         <v>15</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E219" s="5">
         <v>395</v>
@@ -5568,13 +5569,13 @@
         <v>16</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E220" s="5">
         <v>251</v>
@@ -5585,13 +5586,13 @@
         <v>17</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E221" s="5">
         <v>349</v>
@@ -5602,13 +5603,13 @@
         <v>18</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E222" s="5">
         <v>479</v>
@@ -5619,10 +5620,10 @@
         <v>19</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E223" s="5">
         <v>253</v>
@@ -5633,10 +5634,10 @@
         <v>20</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E224" s="5">
         <v>413</v>
@@ -5647,13 +5648,13 @@
         <v>21</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E225" s="5">
         <v>262</v>
@@ -5664,46 +5665,46 @@
         <v>22</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E226" s="5">
         <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B229" s="23"/>
-      <c r="C229" s="23"/>
-      <c r="D229" s="23"/>
+      <c r="A229" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B229" s="24"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C231" s="5">
         <v>45</v>
@@ -5711,10 +5712,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C232" s="5">
         <v>60</v>
@@ -5722,10 +5723,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C233" s="5">
         <v>80</v>
@@ -5733,10 +5734,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C234" s="5">
         <v>39</v>
@@ -5744,10 +5745,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C235" s="5">
         <v>58</v>
@@ -5755,10 +5756,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C236" s="5">
         <v>78</v>
@@ -5766,10 +5767,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C237" s="5">
         <v>44</v>
@@ -5777,10 +5778,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C238" s="5">
         <v>59</v>
@@ -5788,10 +5789,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C239" s="5">
         <v>79</v>
@@ -5799,11 +5800,20 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -5817,15 +5827,6 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Section02/activities/Excel_Practice_Student.xlsx
+++ b/Section02/activities/Excel_Practice_Student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7A7A6B-82E1-4897-8C7E-8A206229641B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" activeTab="2" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="17496" windowHeight="10416" activeTab="1" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="198">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -620,16 +620,28 @@
   </si>
   <si>
     <t>12 Months</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Overtime Hours</t>
+  </si>
+  <si>
+    <t>Overtime Bonus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,6 +666,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -810,14 +829,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -880,8 +897,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1194,215 +1228,454 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="23">
         <v>44669</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="24">
         <v>10</v>
       </c>
       <c r="D4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="26">
+        <f>C4*D4</f>
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <f>IF(D4&gt;40,D4-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <f>0.5*F4*C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <f>SUM(E4+G4)</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="24">
         <v>15</v>
       </c>
       <c r="D5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="26">
+        <f t="shared" ref="E5:E14" si="0">C5*D5</f>
+        <v>525</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="1">IF(D5&gt;40,D5-40,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" ref="G5:G14" si="2">0.5*F5*C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" ref="H5:H14" si="3">SUM(E5+G5)</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="24">
         <v>3.5</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="26">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="24">
         <v>20.100000000000001</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="26">
+        <f t="shared" si="0"/>
+        <v>1005.0000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" si="2"/>
+        <v>100.5</v>
+      </c>
+      <c r="H7" s="26">
+        <f t="shared" si="3"/>
+        <v>1105.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="24">
         <v>5.75</v>
       </c>
       <c r="D8">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="26">
+        <f t="shared" si="0"/>
+        <v>316.25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="2"/>
+        <v>43.125</v>
+      </c>
+      <c r="H8" s="26">
+        <f t="shared" si="3"/>
+        <v>359.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="24">
         <v>12</v>
       </c>
       <c r="D9">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="26">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="26">
+        <f t="shared" si="3"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="24">
         <v>6.55</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="26">
+        <f t="shared" si="0"/>
+        <v>163.75</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="3"/>
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="24">
         <v>30</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="26">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="3"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="24">
         <v>75</v>
       </c>
       <c r="D12">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="26">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="24">
         <v>40</v>
       </c>
       <c r="D13">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="26">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="3"/>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="24">
         <v>25</v>
       </c>
       <c r="D14">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="26">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="24">
+        <f>MAX(C4:C15)</f>
+        <v>75</v>
+      </c>
+      <c r="D16" s="28">
+        <f t="shared" ref="D16:E16" si="4">MAX(D4:D15)</f>
+        <v>55</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17" s="24">
+        <f>MIN(C4:C14)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D17" s="28">
+        <f>MIN(D4:D14)</f>
+        <v>22</v>
+      </c>
+      <c r="E17" s="24">
+        <f>MIN(E4:E14)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" s="24">
+        <f>AVERAGE(C4:C14)</f>
+        <v>22.081818181818178</v>
+      </c>
+      <c r="D18" s="28">
+        <f t="shared" ref="D18:E18" si="5">AVERAGE(D4:D14)</f>
+        <v>37</v>
+      </c>
+      <c r="E18" s="24">
+        <f t="shared" si="5"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
+      </c>
+      <c r="C19" s="24">
+        <f>SUM(C4:C14)</f>
+        <v>242.89999999999998</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" ref="D19:E19" si="6">SUM(D4:D14)</f>
+        <v>407</v>
+      </c>
+      <c r="E19" s="24">
+        <f t="shared" si="6"/>
+        <v>8635</v>
       </c>
     </row>
   </sheetData>
@@ -1415,11 +1688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1447,41 +1720,109 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="30">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="32">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D3" s="33">
+        <v>12</v>
+      </c>
+      <c r="E3" s="34">
+        <f>B3*C3</f>
+        <v>1220</v>
+      </c>
+      <c r="F3" s="1">
+        <f>B3+E3</f>
+        <v>21220</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/D3</f>
+        <v>1768.3333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="31">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D4" s="33">
+        <v>12</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" ref="E4:E6" si="0">B4*C4</f>
+        <v>810</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F6" si="1">B4+E4</f>
+        <v>15810</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G6" si="2">F4/D4</f>
+        <v>1317.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="31">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D5" s="33">
+        <v>12</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>10250</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
+        <v>854.16666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="31">
+        <v>60000</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.246</v>
+      </c>
+      <c r="D6" s="33">
+        <v>12</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="0"/>
+        <v>14760</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>74760</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>6230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1492,4328 +1833,4319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB70C1B-75BF-4BA5-9170-95D94596A40F}">
   <dimension ref="A1:N240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
         <v>45</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="3">
         <v>45</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3">
         <v>60</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="3">
         <v>60</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3">
         <v>80</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
         <v>80</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="3">
         <v>65</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3">
         <v>65</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3">
         <v>80</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3">
         <v>80</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3">
         <v>100</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3">
         <v>43</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3">
         <v>43</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
         <v>58</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="3">
         <v>58</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
         <v>78</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3">
         <v>78</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4">
         <v>45</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
         <v>60</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4">
         <v>80</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4">
         <v>65</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7">
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4">
         <v>80</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="7">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4">
         <v>100</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="7">
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4">
         <v>43</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4">
         <v>58</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="7">
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="4">
         <v>78</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3">
         <v>49</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3">
         <v>63</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="15">
+      <c r="F28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="12">
         <v>1</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3">
         <v>83</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="15">
+      <c r="F29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="12">
         <v>1</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3">
         <v>43</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="15">
+      <c r="F30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="12">
         <v>2</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3">
         <v>58</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="F31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="15">
         <v>2</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3">
         <v>78</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3">
         <v>65</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3">
         <v>80</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3">
         <v>100</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="3">
         <v>43</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="3">
         <v>58</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="3">
         <v>78</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="F40" s="24" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="F40" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
         <v>305</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
         <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>510</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="G43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="3">
         <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>490</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" s="6" t="s">
+      <c r="G44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="3">
         <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>335</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="6" t="s">
+      <c r="G45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="3">
         <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>465</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="3">
         <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>475</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="G47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="3">
         <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>525</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="6" t="s">
+      <c r="G48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="3">
         <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="3">
         <v>385</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="H49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="3">
         <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3">
         <v>420</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
         <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>349</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H51" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="3">
         <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3">
         <v>253</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
         <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="3">
         <v>395</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H53" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="3">
         <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
         <v>310</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H54" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6">
+      <c r="B55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
         <v>475</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6">
+      <c r="G55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3">
         <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="3">
         <v>505</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="3">
         <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
         <v>455</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6">
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
         <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6">
+      <c r="B58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
         <v>405</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6">
+      <c r="G58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
         <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3">
         <v>438</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
         <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
         <v>310</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="H60" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6">
+      <c r="B61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6">
+      <c r="G61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="F64" s="25" t="s">
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="F64" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="H65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="I65" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3">
         <v>305</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
         <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="3">
         <v>510</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="6" t="s">
+      <c r="G67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="3">
         <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="3">
         <v>490</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H68" s="6" t="s">
+      <c r="G68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="3">
         <v>490</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="3">
         <v>335</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="6" t="s">
+      <c r="G69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="3">
         <v>335</v>
       </c>
-      <c r="K69" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" s="6"/>
+      <c r="K69" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="3">
         <v>465</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="3">
         <v>465</v>
       </c>
-      <c r="K70" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="L70" s="6"/>
+      <c r="K70" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="3">
         <v>475</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="6" t="s">
+      <c r="G71" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="3">
         <v>475</v>
       </c>
-      <c r="K71" s="21" t="s">
+      <c r="K71" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L71" s="6"/>
+      <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="3">
         <v>525</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="6" t="s">
+      <c r="G72" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="3">
         <v>525</v>
       </c>
-      <c r="K72" s="21" t="s">
+      <c r="K72" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="L72" s="6"/>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="3">
         <v>385</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="3">
         <v>385</v>
       </c>
-      <c r="K73" s="21" t="s">
+      <c r="K73" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="L73" s="6"/>
+      <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3">
         <v>420</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3">
         <v>420</v>
       </c>
-      <c r="K74" s="21" t="s">
+      <c r="K74" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="3">
         <v>349</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="3">
         <v>349</v>
       </c>
-      <c r="K75" s="21" t="s">
+      <c r="K75" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3">
         <v>253</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3">
         <v>253</v>
       </c>
-      <c r="K76" s="21" t="s">
+      <c r="K76" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L76" s="6"/>
+      <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="3">
         <v>395</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="H77" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="3">
         <v>395</v>
       </c>
-      <c r="K77" s="21" t="s">
+      <c r="K77" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="3"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="3">
         <v>310</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="3">
         <v>310</v>
       </c>
-      <c r="K78" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L78" s="6"/>
+      <c r="K78" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" s="3"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6">
+      <c r="B79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3">
         <v>475</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6">
+      <c r="G79" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3">
         <v>475</v>
       </c>
-      <c r="K79" s="21" t="s">
+      <c r="K79" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L79" s="6"/>
+      <c r="L79" s="3"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="3">
         <v>505</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="3">
         <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3">
         <v>455</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3">
         <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6">
+      <c r="B82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
         <v>405</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6">
+      <c r="G82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3">
         <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
         <v>438</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3">
         <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="3">
         <v>310</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6">
+      <c r="B85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3">
         <v>200</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6">
+      <c r="G85" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="6">
+      <c r="B90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="3">
         <v>49</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91" s="6">
+      <c r="B91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="3">
         <v>63</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="3">
         <v>1</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="F91" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G91" s="12" t="s">
+      <c r="G91" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="6">
+      <c r="B92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="3">
         <v>83</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="3">
         <v>1</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G92" s="15">
+      <c r="F92" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="12">
         <v>1</v>
       </c>
-      <c r="H92" s="16"/>
+      <c r="H92" s="13"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="6">
+      <c r="B93" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="3">
         <v>43</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="3">
         <v>1</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G93" s="18">
+      <c r="F93" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G93" s="15">
         <v>2</v>
       </c>
-      <c r="H93" s="16"/>
+      <c r="H93" s="13"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94" s="6">
+      <c r="B94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="3">
         <v>58</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="3">
         <v>1</v>
       </c>
-      <c r="F94" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G94" s="15">
+      <c r="F94" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G94" s="12">
         <v>1</v>
       </c>
-      <c r="H94" s="16"/>
+      <c r="H94" s="13"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C95" s="6">
+      <c r="B95" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="3">
         <v>78</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="3">
         <v>1</v>
       </c>
-      <c r="F95" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G95" s="18">
+      <c r="F95" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" s="15">
         <v>2</v>
       </c>
-      <c r="H95" s="20"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="6">
+      <c r="B96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="3">
         <v>65</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="6">
+      <c r="B97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="3">
         <v>80</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="B98" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="3">
         <v>100</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C99" s="6">
+      <c r="B99" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="3">
         <v>43</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C100" s="6">
+      <c r="B100" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="3">
         <v>58</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C101" s="6">
+      <c r="B101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="3">
         <v>78</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="F103" s="24" t="s">
+      <c r="B103" s="21"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="F103" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I104" s="5" t="s">
+      <c r="I104" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C105" s="5">
+      <c r="B105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="2">
         <v>318</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G105" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H105" s="5">
+      <c r="G105" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H105" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="5">
+      <c r="B106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2">
         <v>405</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G106" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H106" s="5">
+      <c r="G106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C107" s="5">
+      <c r="B107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="2">
         <v>525</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G107" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" s="5">
+      <c r="G107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" s="2">
         <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="5">
+      <c r="B108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="2">
         <v>309</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G108" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H108" s="5">
+      <c r="G108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H108" s="2">
         <v>309</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="5">
+      <c r="B109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C109" s="2">
         <v>405</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G109" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H109" s="5">
+      <c r="G109" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H109" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="5">
+      <c r="B110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C110" s="2">
         <v>534</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G110" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H110" s="5">
+      <c r="G110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H110" s="2">
         <v>534</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="B111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="2">
         <v>314</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G111" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H111" s="5">
+      <c r="G111" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H111" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C112" s="5">
+      <c r="B112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="2">
         <v>405</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G112" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H112" s="5">
+      <c r="G112" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H112" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C113" s="5">
+      <c r="B113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" s="2">
         <v>530</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G113" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H113" s="5">
+      <c r="G113" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H113" s="2">
         <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="F115" s="24" t="s">
+      <c r="B115" s="21"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="F115" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="G115" s="24"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="24"/>
-      <c r="L115" s="24"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L116" s="5" t="s">
+      <c r="L116" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117" s="5">
+      <c r="B117" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="2">
         <v>45</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="2">
         <v>1</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="2">
         <v>2</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="2">
         <v>3</v>
       </c>
-      <c r="I117" s="5">
+      <c r="I117" s="2">
         <v>4</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117" s="2">
         <v>5</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C118" s="5">
+      <c r="B118" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="2">
         <v>60</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="5">
+      <c r="B119" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="2">
         <v>80</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="2">
         <v>2</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="2">
         <v>2</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="2">
         <v>3</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I119" s="2">
         <v>3</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119" s="2">
         <v>4</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119" s="2">
         <v>5</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C120" s="5">
+      <c r="B120" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B121" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C121" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" s="5">
+      <c r="B122" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C122" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B123" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123" s="5">
+      <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="5">
+      <c r="B124" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C124" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="5">
+      <c r="B125" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C125" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="2">
         <v>10</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="2">
         <v>4</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="2">
         <v>1</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="2">
         <v>12</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="2">
         <v>3</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="2">
         <v>15</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="2">
         <v>1</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="2">
         <v>3</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="2">
         <v>4</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="2">
         <v>2</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="2">
         <v>6</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="2">
         <v>10</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="2">
         <v>4</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="2">
         <v>1</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="2">
         <v>9</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="2">
         <v>2</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="2">
         <v>1</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="24" t="s">
+      <c r="A138" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24"/>
-      <c r="D138" s="24"/>
-      <c r="F138" s="24" t="s">
+      <c r="B138" s="21"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="F138" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="H139" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I139" s="5" t="s">
+      <c r="I139" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" s="5">
+      <c r="B140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="2">
         <v>49</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G140" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H140" s="5">
+      <c r="G140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H140" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B141" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="5">
+      <c r="B141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C141" s="2">
         <v>63</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G141" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H141" s="5">
+      <c r="G141" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H141" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C142" s="5">
+      <c r="B142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="2">
         <v>83</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H142" s="5">
+      <c r="G142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" s="2">
         <v>83</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" s="5">
+      <c r="B143" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" s="2">
         <v>43</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G143" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H143" s="5">
+      <c r="G143" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H143" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C144" s="5">
+      <c r="B144" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="2">
         <v>58</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G144" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H144" s="5">
+      <c r="G144" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H144" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B145" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C145" s="5">
+      <c r="B145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C145" s="2">
         <v>78</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G145" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H145" s="5">
+      <c r="G145" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H145" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B146" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C146" s="5">
+      <c r="B146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="2">
         <v>65</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G146" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H146" s="5">
+      <c r="G146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H146" s="2">
         <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C147" s="5">
+      <c r="B147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147" s="2">
         <v>80</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G147" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H147" s="5">
+      <c r="G147" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H147" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C148" s="5">
+      <c r="B148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="2">
         <v>100</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="F148" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G148" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H148" s="5">
+      <c r="G148" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H148" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="24"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="24"/>
-      <c r="H150" s="24" t="s">
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="H150" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="24"/>
-      <c r="M150" s="24"/>
-      <c r="N150" s="24"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="21"/>
+      <c r="N150" s="21"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H151" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I151" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J151" s="5" t="s">
+      <c r="J151" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K151" s="5" t="s">
+      <c r="K151" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L151" s="5" t="s">
+      <c r="L151" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B152" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C152" s="5" t="s">
+      <c r="B152" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="2">
         <v>318</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="2">
         <v>1</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="I152" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J152" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K152" s="5" t="s">
+      <c r="J152" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K152" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L152" s="5">
+      <c r="L152" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B153" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C153" s="5" t="s">
+      <c r="B153" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="2">
         <v>405</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="2">
         <v>2</v>
       </c>
-      <c r="I153" s="5" t="s">
+      <c r="I153" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="J153" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K153" s="5" t="s">
+      <c r="J153" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L153" s="5">
+      <c r="L153" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C154" s="5" t="s">
+      <c r="B154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="2">
         <v>525</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="2">
         <v>3</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I154" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J154" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K154" s="5" t="s">
+      <c r="J154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154" s="2">
         <v>525</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D155" s="5">
+      <c r="B155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" s="2">
         <v>309</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="2">
         <v>4</v>
       </c>
-      <c r="I155" s="5" t="s">
+      <c r="I155" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J155" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L155" s="5">
+      <c r="J155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L155" s="2">
         <v>309</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B156" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D156" s="5">
+      <c r="B156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" s="2">
         <v>405</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="2">
         <v>5</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I156" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="J156" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L156" s="5">
+      <c r="J156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L156" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B157" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="5" t="s">
+      <c r="B157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="2">
         <v>534</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="2">
         <v>6</v>
       </c>
-      <c r="I157" s="5" t="s">
+      <c r="I157" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J157" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K157" s="5" t="s">
+      <c r="J157" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K157" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L157" s="2">
         <v>534</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D158" s="5">
+      <c r="B158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" s="2">
         <v>314</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="2">
         <v>7</v>
       </c>
-      <c r="I158" s="5" t="s">
+      <c r="I158" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J158" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L158" s="5">
+      <c r="J158" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L158" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B159" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D159" s="5">
+      <c r="B159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" s="2">
         <v>405</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="2">
         <v>8</v>
       </c>
-      <c r="I159" s="5" t="s">
+      <c r="I159" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J159" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L159" s="5">
+      <c r="J159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L159" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B160" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="B160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D160" s="2">
         <v>530</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="2">
         <v>9</v>
       </c>
-      <c r="I160" s="5" t="s">
+      <c r="I160" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J160" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L160" s="5">
+      <c r="J160" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L160" s="2">
         <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="2">
         <v>195</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="2">
         <v>10</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="I161" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J161" s="5" t="s">
+      <c r="J161" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="2">
         <v>205</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="2">
         <v>11</v>
       </c>
-      <c r="I162" s="5" t="s">
+      <c r="I162" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J162" s="5" t="s">
+      <c r="J162" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="2">
         <v>395</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="2">
         <v>12</v>
       </c>
-      <c r="I163" s="5" t="s">
+      <c r="I163" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J163" s="5" t="s">
+      <c r="J163" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K163" s="5" t="s">
+      <c r="K163" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L163" s="5">
+      <c r="L163" s="2">
         <v>395</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="2">
         <v>195</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="2">
         <v>13</v>
       </c>
-      <c r="I164" s="5" t="s">
+      <c r="I164" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J164" s="5" t="s">
+      <c r="J164" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K164" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L164" s="5">
+      <c r="L164" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="2">
         <v>205</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="2">
         <v>14</v>
       </c>
-      <c r="I165" s="5" t="s">
+      <c r="I165" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="J165" s="5" t="s">
+      <c r="J165" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K165" s="5" t="s">
+      <c r="K165" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L165" s="5">
+      <c r="L165" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="2">
         <v>395</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="2">
         <v>15</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I166" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J166" s="5" t="s">
+      <c r="J166" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K166" s="5" t="s">
+      <c r="K166" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="L166" s="5">
+      <c r="L166" s="2">
         <v>395</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="2">
         <v>251</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="2">
         <v>16</v>
       </c>
-      <c r="I167" s="5" t="s">
+      <c r="I167" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="J167" s="5" t="s">
+      <c r="J167" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K167" s="5" t="s">
+      <c r="K167" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L167" s="5">
+      <c r="L167" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="2">
         <v>349</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="2">
         <v>17</v>
       </c>
-      <c r="I168" s="5" t="s">
+      <c r="I168" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J168" s="5" t="s">
+      <c r="J168" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K168" s="5" t="s">
+      <c r="K168" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L168" s="5">
+      <c r="L168" s="2">
         <v>349</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="2">
         <v>479</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="2">
         <v>18</v>
       </c>
-      <c r="I169" s="5" t="s">
+      <c r="I169" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J169" s="5" t="s">
+      <c r="J169" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K169" s="5" t="s">
+      <c r="K169" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L169" s="5">
+      <c r="L169" s="2">
         <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="2">
         <v>253</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="2">
         <v>19</v>
       </c>
-      <c r="I170" s="5" t="s">
+      <c r="I170" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J170" s="5" t="s">
+      <c r="J170" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L170" s="5">
+      <c r="L170" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="2">
         <v>413</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="2">
         <v>20</v>
       </c>
-      <c r="I171" s="5" t="s">
+      <c r="I171" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J171" s="5" t="s">
+      <c r="J171" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L171" s="5">
+      <c r="L171" s="2">
         <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="2">
         <v>262</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H172" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="2">
         <v>442</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B175" s="24" t="s">
+      <c r="B175" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C175" s="24"/>
-      <c r="D175" s="24"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="24"/>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D177" s="5">
+      <c r="C177" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D177" s="2">
         <v>318</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G177" s="13" t="s">
+      <c r="G177" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D178" s="5">
+      <c r="C178" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" s="2">
         <v>405</v>
       </c>
-      <c r="F178" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G178" s="16"/>
+      <c r="F178" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G178" s="13"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C179" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D179" s="5">
+      <c r="C179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="2">
         <v>525</v>
       </c>
-      <c r="F179" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G179" s="16"/>
+      <c r="F179" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G179" s="13"/>
     </row>
     <row r="180" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D180" s="5">
+      <c r="C180" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="2">
         <v>309</v>
       </c>
-      <c r="F180" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G180" s="20"/>
+      <c r="F180" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G180" s="17"/>
     </row>
     <row r="181" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D181" s="5">
+      <c r="C181" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D182" s="5">
+      <c r="C182" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="2">
         <v>534</v>
       </c>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D183" s="5">
+      <c r="C183" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D184" s="5">
+      <c r="C184" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D184" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C185" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D185" s="5">
+      <c r="C185" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D185" s="2">
         <v>530</v>
       </c>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B187" s="24" t="s">
+      <c r="B187" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="24"/>
-      <c r="D187" s="24"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="24"/>
-      <c r="G187" s="24"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="24"/>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
     </row>
     <row r="188" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="E188" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="G188" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H188" s="12" t="s">
+      <c r="H188" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I188" s="13" t="s">
+      <c r="I188" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C189" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D189" s="5">
+      <c r="C189" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D189" s="2">
         <v>318</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="2">
         <v>1</v>
       </c>
-      <c r="G189" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H189" s="15">
+      <c r="G189" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H189" s="12">
         <v>1</v>
       </c>
-      <c r="I189" s="16"/>
+      <c r="I189" s="13"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C190" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D190" s="5">
+      <c r="C190" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D190" s="2">
         <v>405</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="2">
         <v>2</v>
       </c>
-      <c r="G190" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H190" s="15">
+      <c r="G190" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H190" s="12">
         <v>2</v>
       </c>
-      <c r="I190" s="16"/>
+      <c r="I190" s="13"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D191" s="5">
+      <c r="C191" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D191" s="2">
         <v>525</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="2">
         <v>3</v>
       </c>
-      <c r="G191" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H191" s="15">
+      <c r="G191" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H191" s="12">
         <v>3</v>
       </c>
-      <c r="I191" s="16"/>
+      <c r="I191" s="13"/>
     </row>
     <row r="192" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D192" s="5">
+      <c r="C192" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" s="2">
         <v>309</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="2">
         <v>1</v>
       </c>
-      <c r="G192" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H192" s="15">
+      <c r="G192" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H192" s="12">
         <v>1</v>
       </c>
-      <c r="I192" s="16"/>
+      <c r="I192" s="13"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C193" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D193" s="5">
+      <c r="C193" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D193" s="2">
         <v>405</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="2">
         <v>1</v>
       </c>
-      <c r="G193" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H193" s="15">
+      <c r="G193" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H193" s="12">
         <v>2</v>
       </c>
-      <c r="I193" s="16"/>
+      <c r="I193" s="13"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C194" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D194" s="5">
+      <c r="C194" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D194" s="2">
         <v>534</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="2">
         <v>2</v>
       </c>
-      <c r="G194" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H194" s="15">
+      <c r="G194" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H194" s="12">
         <v>3</v>
       </c>
-      <c r="I194" s="16"/>
+      <c r="I194" s="13"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="5">
+      <c r="C195" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D195" s="2">
         <v>314</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="2">
         <v>1</v>
       </c>
-      <c r="G195" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H195" s="15">
+      <c r="G195" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H195" s="12">
         <v>1</v>
       </c>
-      <c r="I195" s="16"/>
+      <c r="I195" s="13"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C196" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D196" s="5">
+      <c r="C196" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D196" s="2">
         <v>405</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="2">
         <v>2</v>
       </c>
-      <c r="G196" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H196" s="15">
+      <c r="G196" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H196" s="12">
         <v>2</v>
       </c>
-      <c r="I196" s="16"/>
+      <c r="I196" s="13"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D197" s="5">
+      <c r="C197" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D197" s="2">
         <v>530</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="2">
         <v>3</v>
       </c>
-      <c r="G197" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H197" s="15">
+      <c r="G197" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H197" s="12">
         <v>3</v>
       </c>
-      <c r="I197" s="16"/>
+      <c r="I197" s="13"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C198" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="2">
         <v>195</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="2">
         <v>1</v>
       </c>
-      <c r="G198" s="14" t="s">
+      <c r="G198" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H198" s="15">
+      <c r="H198" s="12">
         <v>1</v>
       </c>
-      <c r="I198" s="16"/>
+      <c r="I198" s="13"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="2">
         <v>205</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="2">
         <v>2</v>
       </c>
-      <c r="G199" s="14" t="s">
+      <c r="G199" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H199" s="15">
+      <c r="H199" s="12">
         <v>2</v>
       </c>
-      <c r="I199" s="16"/>
+      <c r="I199" s="13"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C200" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="2">
         <v>395</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="2">
         <v>2</v>
       </c>
-      <c r="G200" s="17" t="s">
+      <c r="G200" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H200" s="18">
+      <c r="H200" s="15">
         <v>3</v>
       </c>
-      <c r="I200" s="20"/>
+      <c r="I200" s="17"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C201" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="2">
         <v>195</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24"/>
-      <c r="D203" s="24"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24"/>
-      <c r="G203" s="24"/>
+      <c r="B203" s="21"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C204" s="5" t="s">
+      <c r="C204" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="E204" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="5">
+      <c r="A205" s="2">
         <v>1</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C205" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="C205" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="5">
+      <c r="A206" s="2">
         <v>2</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C206" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D206" s="5" t="s">
+      <c r="C206" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E206" s="5">
+      <c r="E206" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="5">
+      <c r="A207" s="2">
         <v>3</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C207" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C207" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D207" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E207" s="5">
+      <c r="E207" s="2">
         <v>525</v>
       </c>
-      <c r="F207" s="15" t="s">
+      <c r="F207" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="5">
+      <c r="A208" s="2">
         <v>4</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C208" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E208" s="5">
+      <c r="C208" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" s="2">
         <v>309</v>
       </c>
-      <c r="F208" s="15" t="s">
+      <c r="F208" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G208" s="22"/>
+      <c r="G208" s="19"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="5">
+      <c r="A209" s="2">
         <v>5</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E209" s="5">
+      <c r="C209" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E209" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="5">
+      <c r="A210" s="2">
         <v>6</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C210" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="C210" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E210" s="5">
+      <c r="E210" s="2">
         <v>534</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="5">
+      <c r="A211" s="2">
         <v>7</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C211" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E211" s="5">
+      <c r="C211" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="5">
+      <c r="A212" s="2">
         <v>8</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C212" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E212" s="5">
+      <c r="C212" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E212" s="2">
         <v>405</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="5">
+      <c r="A213" s="2">
         <v>9</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E213" s="5">
+      <c r="C213" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E213" s="2">
         <v>530</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="5">
+      <c r="A214" s="2">
         <v>10</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E214" s="5">
+      <c r="E214" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="5">
+      <c r="A215" s="2">
         <v>11</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E215" s="5">
+      <c r="E215" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="5">
+      <c r="A216" s="2">
         <v>12</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E216" s="5">
+      <c r="E216" s="2">
         <v>395</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="5">
+      <c r="A217" s="2">
         <v>13</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C217" s="5" t="s">
+      <c r="C217" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E217" s="5">
+      <c r="E217" s="2">
         <v>195</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="5">
+      <c r="A218" s="2">
         <v>14</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E218" s="5">
+      <c r="E218" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="5">
+      <c r="A219" s="2">
         <v>15</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D219" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E219" s="5">
+      <c r="E219" s="2">
         <v>395</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="5">
+      <c r="A220" s="2">
         <v>16</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E220" s="5">
+      <c r="E220" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="5">
+      <c r="A221" s="2">
         <v>17</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D221" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="2">
         <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="5">
+      <c r="A222" s="2">
         <v>18</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E222" s="5">
+      <c r="E222" s="2">
         <v>479</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="5">
+      <c r="A223" s="2">
         <v>19</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C223" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E223" s="5">
+      <c r="E223" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="5">
+      <c r="A224" s="2">
         <v>20</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C224" s="5" t="s">
+      <c r="C224" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E224" s="5">
+      <c r="E224" s="2">
         <v>413</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="5">
+      <c r="A225" s="2">
         <v>21</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E225" s="5">
+      <c r="E225" s="2">
         <v>262</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="5">
+      <c r="A226" s="2">
         <v>22</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E226" s="5">
+      <c r="E226" s="2">
         <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="24" t="s">
+      <c r="A229" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="24"/>
-      <c r="C229" s="24"/>
-      <c r="D229" s="24"/>
+      <c r="B229" s="21"/>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C231" s="5">
+      <c r="B231" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C231" s="2">
         <v>45</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C232" s="5">
+      <c r="B232" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C232" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B233" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C233" s="5">
+      <c r="B233" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C233" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C234" s="5">
+      <c r="B234" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C235" s="5">
+      <c r="B235" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C236" s="5">
+      <c r="B236" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C236" s="2">
         <v>78</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C237" s="5">
+      <c r="B237" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C237" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C238" s="5">
+      <c r="B238" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C238" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C239" s="5">
+      <c r="B239" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C239" s="2">
         <v>79</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="2" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -5827,6 +6159,15 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
